--- a/document/SWP391-Group2-Backlog.xlsx
+++ b/document/SWP391-Group2-Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal work\FPTU\SWP\SWP391.E-BL5_Group2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1E60DF-0E07-4D0D-805E-7D739CF6F90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD669912-E9B2-4D34-B358-C73493FB95C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="2820" windowWidth="21600" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
   <si>
     <t>Final Product Backblog</t>
   </si>
@@ -230,33 +230,12 @@
     <t>Blog Details</t>
   </si>
   <si>
-    <t>Permission Homepage</t>
-  </si>
-  <si>
-    <t>Desgin Homepage</t>
-  </si>
-  <si>
     <t>User Profile</t>
   </si>
   <si>
-    <t>Permission Dashboard</t>
-  </si>
-  <si>
-    <t>Desgin Dashboard</t>
-  </si>
-  <si>
-    <t>Account management</t>
-  </si>
-  <si>
     <t>Common</t>
   </si>
   <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Public</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
@@ -266,9 +245,6 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>Complex</t>
-  </si>
-  <si>
     <t>This is scrren when user want to access the important part of the website have to do. User access with their created account or can go ahead and create a new one</t>
   </si>
   <si>
@@ -284,24 +260,9 @@
     <t>Blog deital is the detailed part of one blog, Display any thing about the product, User can access this and see more about the product</t>
   </si>
   <si>
-    <t>Role permission can access to features at Homepage</t>
-  </si>
-  <si>
-    <t>This is the screen when user access the website the first time, can be aceess with or without and account. Display the header, footer of the website, and the body descript about promotions, category, featured product and brands of the store products</t>
-  </si>
-  <si>
     <t>This is the backend part to manage user acess between, user, seller, marketing and admin. All have different acess, different use to the website</t>
   </si>
   <si>
-    <t>Role permission can access to features at Dashboard</t>
-  </si>
-  <si>
-    <t>This is management screen. There is CRUD account, product, blog, faq,…</t>
-  </si>
-  <si>
-    <t>This function is in dashboard. There is List, Create, Update, Delete accounts in systems</t>
-  </si>
-  <si>
     <t>HungTHHE140042</t>
   </si>
   <si>
@@ -311,18 +272,9 @@
     <t>HungTHHE140044</t>
   </si>
   <si>
-    <t>HungDQHE140063</t>
-  </si>
-  <si>
-    <t>HungDQHE140064</t>
-  </si>
-  <si>
     <t>DinhNLHE140992</t>
   </si>
   <si>
-    <t>DinhNLHE140993</t>
-  </si>
-  <si>
     <t>LongNTHE140955</t>
   </si>
   <si>
@@ -339,13 +291,69 @@
   </si>
   <si>
     <t>Iter1</t>
+  </si>
+  <si>
+    <t>Homepage</t>
+  </si>
+  <si>
+    <t>Change Password</t>
+  </si>
+  <si>
+    <t>Products List</t>
+  </si>
+  <si>
+    <t>Product Details</t>
+  </si>
+  <si>
+    <t>Users List</t>
+  </si>
+  <si>
+    <t>User Details</t>
+  </si>
+  <si>
+    <t>This is screen to user change their password</t>
+  </si>
+  <si>
+    <t>Show the paginated list of products (include products' id, thumbnail, title, category, list price, sale price, featured, and status information):
+- The user can filter the product by category, status or search by title, brief info
+- Sortable by title, category, list price, sale price, featured, or status
+- From each product, the user can choose to hide, show, view, edit it
+- The page also have the button/link that allows the user to add new product</t>
+  </si>
+  <si>
+    <t>Show detailed product information (thumbnail, category, title, brief information, attached images, description, quantity, list price, sale price, flag to turn the featurning on/off, status), from that allow the user to input, view or edit them</t>
+  </si>
+  <si>
+    <t>Show the paginated list of registered users (include users' id, full name, gender, email, mobile, role, status):
+- The admin can filter the users by gender, role, status
+- Allow the admin to seach users by full name, email, mobile
+- The list is sortable by id, fullname, gender, email, mobile, role, status
+- From each user, the admin can choose to view or edit it
+- The page also have the button/link that allows the admin to add new user</t>
+  </si>
+  <si>
+    <t>Show detailed user information (avatar, full name, gender, email, mobile, role, address, status), from that allow the user to add new, view or edit user information
+- After adding, new generated login password would be email to the new user
+- The admin can only edit/update the role and status of the user</t>
+  </si>
+  <si>
+    <t>SonTNSE04224</t>
+  </si>
+  <si>
+    <t>LongNTHE140954</t>
+  </si>
+  <si>
+    <t>HungDQHE140061</t>
+  </si>
+  <si>
+    <t>HungDQHE140062</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +411,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -442,11 +457,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -463,9 +479,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -476,9 +489,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{1946832E-3E00-46EE-9587-6FDB75A667C9}"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{6AECCC33-1F29-4E2D-9678-B2B671931590}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -870,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,19 +912,19 @@
   <sheetData>
     <row r="1" spans="1:11" ht="111.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="41.25" x14ac:dyDescent="0.8">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -947,56 +970,56 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A14" si="0">ROW()-3</f>
+        <f t="shared" ref="A5:A15" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -1007,26 +1030,26 @@
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:11" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -1037,26 +1060,26 @@
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:11" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -1067,26 +1090,26 @@
         <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
     </row>
     <row r="9" spans="1:11" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1094,59 +1117,59 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:11" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:11" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -1154,29 +1177,29 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="H11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:11" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -1184,29 +1207,29 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="F12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:11" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -1214,29 +1237,29 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:11" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -1244,29 +1267,56 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="8" t="s">
+      <c r="G14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="G15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1274,7 +1324,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G14" xr:uid="{908859F8-C6FD-450D-9182-BF2E3FBAA264}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G15" xr:uid="{908859F8-C6FD-450D-9182-BF2E3FBAA264}">
       <formula1>"N/A, Iter1, Iter2, Iter3, Iter4"</formula1>
     </dataValidation>
   </dataValidations>

--- a/document/SWP391-Group2-Backlog.xlsx
+++ b/document/SWP391-Group2-Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal work\FPTU\SWP\SWP391.E-BL5_Group2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD669912-E9B2-4D34-B358-C73493FB95C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11FC944-3BD4-47F6-875B-9AEE829B1601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="2820" windowWidth="21600" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
   <si>
     <t>Final Product Backblog</t>
   </si>
@@ -230,9 +230,6 @@
     <t>Blog Details</t>
   </si>
   <si>
-    <t>User Profile</t>
-  </si>
-  <si>
     <t>Common</t>
   </si>
   <si>
@@ -260,9 +257,6 @@
     <t>Blog deital is the detailed part of one blog, Display any thing about the product, User can access this and see more about the product</t>
   </si>
   <si>
-    <t>This is the backend part to manage user acess between, user, seller, marketing and admin. All have different acess, different use to the website</t>
-  </si>
-  <si>
     <t>HungTHHE140042</t>
   </si>
   <si>
@@ -273,9 +267,6 @@
   </si>
   <si>
     <t>DinhNLHE140992</t>
-  </si>
-  <si>
-    <t>LongNTHE140955</t>
   </si>
   <si>
     <t>SangNQHE140244</t>
@@ -319,9 +310,6 @@
 - Sortable by title, category, list price, sale price, featured, or status
 - From each product, the user can choose to hide, show, view, edit it
 - The page also have the button/link that allows the user to add new product</t>
-  </si>
-  <si>
-    <t>Show detailed product information (thumbnail, category, title, brief information, attached images, description, quantity, list price, sale price, flag to turn the featurning on/off, status), from that allow the user to input, view or edit them</t>
   </si>
   <si>
     <t>Show the paginated list of registered users (include users' id, full name, gender, email, mobile, role, status):
@@ -340,13 +328,30 @@
     <t>SonTNSE04224</t>
   </si>
   <si>
-    <t>LongNTHE140954</t>
-  </si>
-  <si>
     <t>HungDQHE140061</t>
   </si>
   <si>
     <t>HungDQHE140062</t>
+  </si>
+  <si>
+    <t>Homepage display hot product, new product, latest blog,…</t>
+  </si>
+  <si>
+    <t>Show detailed product information (thumbnail, category, title, brief information, attached images, description, quantity, list price, sale price, flag to turn the featurning on/off, status),</t>
+  </si>
+  <si>
+    <t>Profile Detail</t>
+  </si>
+  <si>
+    <t>This is a screen which allows user to view their own profile information, including all personal information &amp; avatar image.
+User can change profile detail by click in edit button to redirect in edit profile screen.
+User can view order history by click in order history button</t>
+  </si>
+  <si>
+    <t>LongTNHE140954</t>
+  </si>
+  <si>
+    <t>LongTNHE140955</t>
   </si>
 </sst>
 </file>
@@ -486,9 +491,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -497,6 +499,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -895,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,19 +917,19 @@
   <sheetData>
     <row r="1" spans="1:11" ht="111.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="41.25" x14ac:dyDescent="0.8">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -970,22 +975,22 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -1000,22 +1005,22 @@
         <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -1030,22 +1035,22 @@
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -1060,22 +1065,22 @@
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -1090,22 +1095,22 @@
         <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -1117,25 +1122,25 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -1146,26 +1151,26 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>39</v>
+      <c r="B10" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>20</v>
+        <v>41</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -1177,25 +1182,25 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -1207,25 +1212,25 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>45</v>
+        <v>17</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -1237,25 +1242,25 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>46</v>
+        <v>17</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="H13" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -1267,25 +1272,25 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="F14" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -1296,27 +1301,30 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="F15" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/document/SWP391-Group2-Backlog.xlsx
+++ b/document/SWP391-Group2-Backlog.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal work\FPTU\SWP\SWP391.E-BL5_Group2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11FC944-3BD4-47F6-875B-9AEE829B1601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECA9FA5-1CEE-4BE6-A661-A2E82D1E3800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Iter1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -177,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="64">
   <si>
     <t>Final Product Backblog</t>
   </si>
@@ -353,12 +354,42 @@
   <si>
     <t>LongTNHE140955</t>
   </si>
+  <si>
+    <t>Iteration 1</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>In Charge</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Doing</t>
+  </si>
+  <si>
+    <t>LongNTHE140954</t>
+  </si>
+  <si>
+    <t>LongNTHE140955</t>
+  </si>
+  <si>
+    <t>Post List</t>
+  </si>
+  <si>
+    <t>Post Details</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,6 +454,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -467,7 +520,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -502,6 +555,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -900,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,4 +1406,367 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B06846-A131-4248-AE4E-27388151FFB3}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="93.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A14" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G14" xr:uid="{4749C707-C4DF-4C3B-ACEB-49479416E561}">
+      <formula1>"Pending, Doing, Done"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/document/SWP391-Group2-Backlog.xlsx
+++ b/document/SWP391-Group2-Backlog.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal work\FPTU\SWP\SWP391.E-BL5_Group2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECA9FA5-1CEE-4BE6-A661-A2E82D1E3800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B07762-AC32-45BD-B1F2-C6614FE790C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="3405" windowWidth="21600" windowHeight="12765" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Iter1" sheetId="2" r:id="rId2"/>
+    <sheet name="Iter2" sheetId="3" r:id="rId3"/>
+    <sheet name="Iter3" sheetId="4" r:id="rId4"/>
+    <sheet name="Iter4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -178,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="85">
   <si>
     <t>Final Product Backblog</t>
   </si>
@@ -225,12 +228,6 @@
     <t>User Reset Pasword</t>
   </si>
   <si>
-    <t>Blog List</t>
-  </si>
-  <si>
-    <t>Blog Details</t>
-  </si>
-  <si>
     <t>Common</t>
   </si>
   <si>
@@ -255,16 +252,10 @@
     <t>Blog is the post who created by the marketing team, the advertise about new product, new promotion to user. Or just simply review about  a product. With a title, author, date, thumbnail and a briefly descript about the product</t>
   </si>
   <si>
-    <t>Blog deital is the detailed part of one blog, Display any thing about the product, User can access this and see more about the product</t>
-  </si>
-  <si>
     <t>HungTHHE140042</t>
   </si>
   <si>
     <t>HungTHHE140043</t>
-  </si>
-  <si>
-    <t>HungTHHE140044</t>
   </si>
   <si>
     <t>DinhNLHE140992</t>
@@ -326,9 +317,6 @@
 - The admin can only edit/update the role and status of the user</t>
   </si>
   <si>
-    <t>SonTNSE04224</t>
-  </si>
-  <si>
     <t>HungDQHE140061</t>
   </si>
   <si>
@@ -349,47 +337,125 @@
 User can view order history by click in order history button</t>
   </si>
   <si>
+    <t>Iteration 1</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>In Charge</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Doing</t>
+  </si>
+  <si>
+    <t>LongNTHE140954</t>
+  </si>
+  <si>
+    <t>LongNTHE140955</t>
+  </si>
+  <si>
+    <t>Iteration 2</t>
+  </si>
+  <si>
+    <t>Product Dashboard</t>
+  </si>
+  <si>
+    <t>Complex</t>
+  </si>
+  <si>
+    <t>Add to Cart</t>
+  </si>
+  <si>
+    <t>Order Dashboard</t>
+  </si>
+  <si>
+    <t>FAQ detail</t>
+  </si>
+  <si>
+    <t>Post dashboard</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Categories Dashboard</t>
+  </si>
+  <si>
+    <t>FAQ list</t>
+  </si>
+  <si>
+    <t>My Cart</t>
+  </si>
+  <si>
+    <t>FAQ dashboard</t>
+  </si>
+  <si>
+    <t>Post list</t>
+  </si>
+  <si>
+    <t>Post detail</t>
+  </si>
+  <si>
+    <t>Cart Completion</t>
+  </si>
+  <si>
+    <t>Notifications Dashboard</t>
+  </si>
+  <si>
+    <t>Product Review</t>
+  </si>
+  <si>
+    <t>Iteration 3</t>
+  </si>
+  <si>
+    <t>Order history</t>
+  </si>
+  <si>
+    <t>Notification list</t>
+  </si>
+  <si>
+    <t>Notification detail</t>
+  </si>
+  <si>
+    <t>User Authorization</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Iteration 4</t>
+  </si>
+  <si>
+    <t>About us</t>
+  </si>
+  <si>
+    <t>Order history detail</t>
+  </si>
+  <si>
+    <t>Verify new register</t>
+  </si>
+  <si>
+    <t>CMS Dashboard</t>
+  </si>
+  <si>
     <t>LongTNHE140954</t>
   </si>
   <si>
     <t>LongTNHE140955</t>
-  </si>
-  <si>
-    <t>Iteration 1</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>In Charge</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Doing</t>
-  </si>
-  <si>
-    <t>LongNTHE140954</t>
-  </si>
-  <si>
-    <t>LongNTHE140955</t>
-  </si>
-  <si>
-    <t>Post List</t>
-  </si>
-  <si>
-    <t>Post Details</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,6 +542,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -491,7 +564,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -514,13 +587,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -553,20 +652,59 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -963,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,19 +1120,19 @@
   <sheetData>
     <row r="1" spans="1:11" ht="111.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="41.25" x14ac:dyDescent="0.8">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1040,22 +1178,22 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -1063,29 +1201,29 @@
     </row>
     <row r="5" spans="1:11" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A15" si="0">ROW()-3</f>
+        <f t="shared" ref="A5:A14" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -1097,25 +1235,23 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -1126,26 +1262,26 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
+      <c r="B7" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -1157,25 +1293,25 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -1186,26 +1322,26 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
+      <c r="B9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -1216,26 +1352,26 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>36</v>
+      <c r="B10" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>19</v>
+        <v>46</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -1247,25 +1383,25 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -1277,25 +1413,25 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="H12" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -1306,26 +1442,26 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>38</v>
+      <c r="B13" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>19</v>
+        <v>39</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -1336,60 +1472,30 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>18</v>
+      <c r="B14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="1:11" ht="102" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1397,7 +1503,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G15" xr:uid="{908859F8-C6FD-450D-9182-BF2E3FBAA264}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G14" xr:uid="{908859F8-C6FD-450D-9182-BF2E3FBAA264}">
       <formula1>"N/A, Iter1, Iter2, Iter3, Iter4"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1410,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B06846-A131-4248-AE4E-27388151FFB3}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="E5" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,41 +1533,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="14"/>
+      <c r="A1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>58</v>
+      <c r="F2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1473,69 +1579,66 @@
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A14" si="0">ROW()-2</f>
+        <f t="shared" ref="A4:A13" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E5" s="5"/>
       <c r="F5" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -1544,23 +1647,23 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>62</v>
+      <c r="B6" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -1570,22 +1673,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="G7" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -1594,45 +1697,48 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>48</v>
+      <c r="B8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="9" t="s">
-        <v>36</v>
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -1642,22 +1748,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>51</v>
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -1667,22 +1773,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H11" s="4"/>
     </row>
@@ -1691,23 +1797,23 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>38</v>
+      <c r="B12" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H12" s="4"/>
     </row>
@@ -1716,57 +1822,729 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>18</v>
+      <c r="B13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G14" xr:uid="{4749C707-C4DF-4C3B-ACEB-49479416E561}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G13" xr:uid="{4749C707-C4DF-4C3B-ACEB-49479416E561}">
       <formula1>"Pending, Doing, Done"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3166407-3A8A-4417-9E6E-B4D09AD3E1C5}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="47.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>12</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>13</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>14</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>15</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>16</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>17</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>18</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>19</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G10" xr:uid="{631A215B-1284-4F39-AE5A-D1D160C409DF}">
+      <formula1>"Pending, Doing, Done"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7451F09-8652-436B-AD52-FCC74AB67DA3}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="68" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>21</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>22</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>15</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>16</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>24</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>25</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G9" xr:uid="{0348012B-1C3A-470C-8FAD-97C722989F3F}">
+      <formula1>"Pending, Doing, Done"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDD4EB2-544A-4CDC-8AA5-8242F624138E}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="8" width="23.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>26</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>27</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>28</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>29</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>30</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>31</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>32</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>33</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G10" xr:uid="{F30BAD77-A2E9-4505-BEFD-CD688A7628DE}">
+      <formula1>"Pending, Doing, Done"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/document/SWP391-Group2-Backlog.xlsx
+++ b/document/SWP391-Group2-Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal work\FPTU\SWP\SWP391.E-BL5_Group2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B07762-AC32-45BD-B1F2-C6614FE790C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03745F75-C576-4359-8B1F-7A67F3B0BA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="3405" windowWidth="21600" windowHeight="12765" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="86">
   <si>
     <t>Final Product Backblog</t>
   </si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t>LongTNHE140955</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -1518,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B06846-A131-4248-AE4E-27388151FFB3}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="E5" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1591,7 +1594,7 @@
         <v>23</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="H3" s="4"/>
     </row>
@@ -1616,7 +1619,7 @@
         <v>24</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -1638,7 +1641,7 @@
         <v>24</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -1647,7 +1650,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1856,8 +1859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3166407-3A8A-4417-9E6E-B4D09AD3E1C5}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/document/SWP391-Group2-Backlog.xlsx
+++ b/document/SWP391-Group2-Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal work\FPTU\SWP\SWP391.E-BL5_Group2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03745F75-C576-4359-8B1F-7A67F3B0BA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4942619-2ACC-48FF-9C11-8E0C73236210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="97">
   <si>
     <t>Final Product Backblog</t>
   </si>
@@ -240,18 +240,9 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>This is scrren when user want to access the important part of the website have to do. User access with their created account or can go ahead and create a new one</t>
-  </si>
-  <si>
-    <t>This is the screen user want to access other parts of the website but does not already have username and password. Therefore they will have to enter their new username and password, come along with email and phone number</t>
-  </si>
-  <si>
     <t>This is the screen for user that have already created an acoount but does not remember username or password, they can enter the email and the website will send them new user and password via email</t>
   </si>
   <si>
-    <t>Blog is the post who created by the marketing team, the advertise about new product, new promotion to user. Or just simply review about  a product. With a title, author, date, thumbnail and a briefly descript about the product</t>
-  </si>
-  <si>
     <t>HungTHHE140042</t>
   </si>
   <si>
@@ -297,46 +288,15 @@
     <t>This is screen to user change their password</t>
   </si>
   <si>
-    <t>Show the paginated list of products (include products' id, thumbnail, title, category, list price, sale price, featured, and status information):
-- The user can filter the product by category, status or search by title, brief info
-- Sortable by title, category, list price, sale price, featured, or status
-- From each product, the user can choose to hide, show, view, edit it
-- The page also have the button/link that allows the user to add new product</t>
-  </si>
-  <si>
-    <t>Show the paginated list of registered users (include users' id, full name, gender, email, mobile, role, status):
-- The admin can filter the users by gender, role, status
-- Allow the admin to seach users by full name, email, mobile
-- The list is sortable by id, fullname, gender, email, mobile, role, status
-- From each user, the admin can choose to view or edit it
-- The page also have the button/link that allows the admin to add new user</t>
-  </si>
-  <si>
-    <t>Show detailed user information (avatar, full name, gender, email, mobile, role, address, status), from that allow the user to add new, view or edit user information
-- After adding, new generated login password would be email to the new user
-- The admin can only edit/update the role and status of the user</t>
-  </si>
-  <si>
     <t>HungDQHE140061</t>
   </si>
   <si>
     <t>HungDQHE140062</t>
   </si>
   <si>
-    <t>Homepage display hot product, new product, latest blog,…</t>
-  </si>
-  <si>
-    <t>Show detailed product information (thumbnail, category, title, brief information, attached images, description, quantity, list price, sale price, flag to turn the featurning on/off, status),</t>
-  </si>
-  <si>
     <t>Profile Detail</t>
   </si>
   <si>
-    <t>This is a screen which allows user to view their own profile information, including all personal information &amp; avatar image.
-User can change profile detail by click in edit button to redirect in edit profile screen.
-User can view order history by click in order history button</t>
-  </si>
-  <si>
     <t>Iteration 1</t>
   </si>
   <si>
@@ -382,9 +342,6 @@
     <t>Post dashboard</t>
   </si>
   <si>
-    <t>Staff</t>
-  </si>
-  <si>
     <t>Categories Dashboard</t>
   </si>
   <si>
@@ -452,6 +409,82 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>This is scrren when user want to access the important part of the website have to do. User access with their created account</t>
+  </si>
+  <si>
+    <t>This is the screen user want to access other parts of the website but does not already have username and password. Therefore they will have to enter their new username and password, come along with email</t>
+  </si>
+  <si>
+    <t>After registed success, a link by an email will send to user registed email. Access email to verify account.</t>
+  </si>
+  <si>
+    <t>This is a screen which allows user to view their own profile information, including all personal information.</t>
+  </si>
+  <si>
+    <t>Show the paginated list of products (include products' id, thumbnail, title, category, list price, sale price). The user can filter the product by category, price or search by title</t>
+  </si>
+  <si>
+    <t>Show detailed product information (thumbnail, title, attached images, description, quantity, list price, sale price),</t>
+  </si>
+  <si>
+    <t>Show detailed user information (user's id, username, email, mobile, role, status), from that allow the user to add new, view or edit user information
+- The admin can edit all information of the user</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Homepage is welcome page, its display top discount product, newest product, popular products and latest post. Beside, header will change between user logged or not</t>
+  </si>
+  <si>
+    <t>Show the paginated list of registered users (include users' id, username, password, email, role, status):
+- Allow the admin to search users by username, email, id
+- The list is sortable by users' id, username, password, email, role, status
+- The page also have the button that allows the admin to add new user and delete user</t>
+  </si>
+  <si>
+    <t>Post Dashboard is the post who created by the marketing team, the advertise about new product, new promotion to user. Or just simply review about  a product. With a title, author, date, thumbnail and detail image and a briefly descript about the product
+- Allow the admin/marketing to search post by post's id, author, title, content
+- The list is sortable by post' id, author, title, content
+- From each post, the admin/marketing can choose to edit it
+- The page also have the button that allows the admin/marketing to create new post and delete post</t>
+  </si>
+  <si>
+    <t>Analysis: Total product revenue, Product revenue in this month, Total success order, Amount of current pending order
+Revenue by day chart, Category have product success order chart</t>
+  </si>
+  <si>
+    <t>Admin - Seller - Marketing</t>
+  </si>
+  <si>
+    <t>Seller</t>
+  </si>
+  <si>
+    <t>List all product user has add to cart. User also increase, decrese product amout or delete them.</t>
+  </si>
+  <si>
+    <t>Show detailed post information (post's id, author, title, content, image, date),</t>
+  </si>
+  <si>
+    <t>Show the paginated list of posts (include post's id, author, title, content, image, date).</t>
+  </si>
+  <si>
+    <t>At product detail page, user can comment to review about product. Seller or Marketing can reply user's review.</t>
+  </si>
+  <si>
+    <t>Customer - Seller - Marketing</t>
+  </si>
+  <si>
+    <t>After click button "Add to cart" from Product page, that product will has been add to user cart.</t>
+  </si>
+  <si>
+    <t>FAQs Dashboard is the FAQ who created by the marketing team, its frequently asked questions. Summary of questions from product review, marketing team will create FAQs
+- Allow the admin/marketing to search post by faq's id, author, title, content
+- The list is sortable by faq's id, author, title, content
+- From each post, the admin/marketing can choose to edit it
+- The page also have the button that allows the admin/marketing to create new FAQ and delete FAQ</t>
   </si>
 </sst>
 </file>
@@ -1106,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,19 +1217,19 @@
         <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -1214,19 +1247,19 @@
         <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -1238,23 +1271,25 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -1266,25 +1301,25 @@
         <v>4</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -1296,25 +1331,25 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -1326,25 +1361,25 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -1356,25 +1391,25 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -1386,25 +1421,25 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -1416,25 +1451,25 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="H12" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -1446,25 +1481,25 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -1476,25 +1511,25 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -1521,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B06846-A131-4248-AE4E-27388151FFB3}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,7 +1572,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1558,19 +1593,19 @@
         <v>3</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1588,13 +1623,13 @@
         <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H3" s="4"/>
     </row>
@@ -1613,13 +1648,13 @@
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -1628,7 +1663,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>15</v>
@@ -1636,37 +1671,39 @@
       <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="F5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -1676,7 +1713,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -1685,13 +1722,13 @@
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -1701,7 +1738,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>15</v>
@@ -1710,13 +1747,13 @@
         <v>17</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="H8" s="4"/>
     </row>
@@ -1726,7 +1763,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>15</v>
@@ -1735,13 +1772,13 @@
         <v>17</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -1751,7 +1788,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
@@ -1760,13 +1797,13 @@
         <v>17</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -1776,7 +1813,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
@@ -1785,13 +1822,13 @@
         <v>17</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="H11" s="4"/>
     </row>
@@ -1801,7 +1838,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>16</v>
@@ -1810,13 +1847,13 @@
         <v>17</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H12" s="4"/>
     </row>
@@ -1826,7 +1863,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>16</v>
@@ -1835,13 +1872,13 @@
         <v>17</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H13" s="4"/>
     </row>
@@ -1859,13 +1896,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3166407-3A8A-4417-9E6E-B4D09AD3E1C5}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="47.42578125" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" customWidth="1"/>
@@ -1874,7 +1912,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1895,19 +1933,19 @@
         <v>3</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1915,20 +1953,20 @@
         <v>12</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H3" s="4"/>
     </row>
@@ -1937,20 +1975,22 @@
         <v>13</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="F4" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -1959,42 +1999,46 @@
         <v>14</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="F5" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>15</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="F6" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -2003,20 +2047,22 @@
         <v>16</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="F7" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -2025,7 +2071,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>15</v>
@@ -2033,12 +2079,14 @@
       <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="F8" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H8" s="4"/>
     </row>
@@ -2047,7 +2095,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
@@ -2055,34 +2103,38 @@
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="F9" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>19</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="F10" s="6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -2101,7 +2153,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2118,7 +2170,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2139,19 +2191,19 @@
         <v>3</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2168,13 +2220,13 @@
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="H3" s="4"/>
     </row>
@@ -2183,7 +2235,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>16</v>
@@ -2193,10 +2245,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -2205,7 +2257,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
@@ -2215,10 +2267,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -2227,7 +2279,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>15</v>
@@ -2237,10 +2289,10 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -2249,7 +2301,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>15</v>
@@ -2259,10 +2311,10 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -2271,7 +2323,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>16</v>
@@ -2281,10 +2333,10 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H8" s="4"/>
     </row>
@@ -2293,7 +2345,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>16</v>
@@ -2303,10 +2355,10 @@
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -2335,7 +2387,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2356,19 +2408,19 @@
         <v>3</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2376,7 +2428,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>15</v>
@@ -2386,10 +2438,10 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H3" s="4"/>
     </row>
@@ -2398,7 +2450,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -2408,10 +2460,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -2420,7 +2472,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -2430,10 +2482,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -2442,20 +2494,20 @@
         <v>29</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -2468,10 +2520,10 @@
       <c r="D7" s="10"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -2480,7 +2532,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>15</v>
@@ -2490,10 +2542,10 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H8" s="4"/>
     </row>
@@ -2502,7 +2554,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>15</v>
@@ -2512,10 +2564,10 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -2524,7 +2576,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>16</v>
@@ -2534,10 +2586,10 @@
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H10" s="4"/>
     </row>

--- a/document/SWP391-Group2-Backlog.xlsx
+++ b/document/SWP391-Group2-Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal work\FPTU\SWP\SWP391.E-BL5_Group2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4942619-2ACC-48FF-9C11-8E0C73236210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346E36E7-2AD8-48E3-B63C-6777C4541386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="101">
   <si>
     <t>Final Product Backblog</t>
   </si>
@@ -324,46 +324,28 @@
     <t>Iteration 2</t>
   </si>
   <si>
-    <t>Product Dashboard</t>
-  </si>
-  <si>
     <t>Complex</t>
   </si>
   <si>
     <t>Add to Cart</t>
   </si>
   <si>
-    <t>Order Dashboard</t>
-  </si>
-  <si>
     <t>FAQ detail</t>
   </si>
   <si>
     <t>Post dashboard</t>
   </si>
   <si>
-    <t>Categories Dashboard</t>
-  </si>
-  <si>
     <t>FAQ list</t>
   </si>
   <si>
     <t>My Cart</t>
   </si>
   <si>
-    <t>FAQ dashboard</t>
-  </si>
-  <si>
     <t>Post list</t>
   </si>
   <si>
     <t>Post detail</t>
-  </si>
-  <si>
-    <t>Cart Completion</t>
-  </si>
-  <si>
-    <t>Notifications Dashboard</t>
   </si>
   <si>
     <t>Product Review</t>
@@ -485,6 +467,36 @@
 - The list is sortable by faq's id, author, title, content
 - From each post, the admin/marketing can choose to edit it
 - The page also have the button that allows the admin/marketing to create new FAQ and delete FAQ</t>
+  </si>
+  <si>
+    <t>Post Management</t>
+  </si>
+  <si>
+    <t>Product Management</t>
+  </si>
+  <si>
+    <t>FAQ Management</t>
+  </si>
+  <si>
+    <t>Categories Management</t>
+  </si>
+  <si>
+    <t>Notifications Management</t>
+  </si>
+  <si>
+    <t>Order Management</t>
+  </si>
+  <si>
+    <t>Cart Completion (Checkout)</t>
+  </si>
+  <si>
+    <t>Auto send email</t>
+  </si>
+  <si>
+    <t>Email Management</t>
+  </si>
+  <si>
+    <t>Promotion Code Management</t>
   </si>
 </sst>
 </file>
@@ -655,7 +667,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -721,9 +733,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -741,6 +750,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1156,19 +1177,19 @@
   <sheetData>
     <row r="1" spans="1:11" ht="111.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="41.25" x14ac:dyDescent="0.8">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1217,7 +1238,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>17</v>
@@ -1247,7 +1268,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>17</v>
@@ -1271,13 +1292,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
@@ -1301,13 +1322,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -1337,7 +1358,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -1397,7 +1418,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>17</v>
@@ -1427,7 +1448,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
@@ -1457,7 +1478,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>17</v>
@@ -1487,7 +1508,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>17</v>
@@ -1517,7 +1538,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>17</v>
@@ -1556,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B06846-A131-4248-AE4E-27388151FFB3}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1623,13 +1644,13 @@
         <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H3" s="4"/>
     </row>
@@ -1648,13 +1669,13 @@
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -1663,7 +1684,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>15</v>
@@ -1672,13 +1693,13 @@
         <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -1688,22 +1709,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -1722,13 +1743,13 @@
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -1753,7 +1774,7 @@
         <v>35</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H8" s="4"/>
     </row>
@@ -1772,13 +1793,13 @@
         <v>17</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -1797,13 +1818,13 @@
         <v>17</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -1822,13 +1843,13 @@
         <v>17</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H11" s="4"/>
     </row>
@@ -1847,13 +1868,13 @@
         <v>17</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="H12" s="4"/>
     </row>
@@ -1872,13 +1893,13 @@
         <v>17</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="H13" s="4"/>
     </row>
@@ -1896,8 +1917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3166407-3A8A-4417-9E6E-B4D09AD3E1C5}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1953,13 +1974,13 @@
         <v>12</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="4" t="s">
@@ -1975,7 +1996,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
@@ -1984,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>25</v>
@@ -1999,7 +2020,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -2008,7 +2029,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>25</v>
@@ -2023,16 +2044,16 @@
         <v>15</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>22</v>
@@ -2047,16 +2068,16 @@
         <v>16</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>35</v>
@@ -2071,7 +2092,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>15</v>
@@ -2080,7 +2101,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>24</v>
@@ -2095,7 +2116,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
@@ -2104,7 +2125,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>24</v>
@@ -2119,16 +2140,16 @@
         <v>19</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>44</v>
@@ -2152,14 +2173,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7451F09-8652-436B-AD52-FCC74AB67DA3}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="68" customWidth="1"/>
@@ -2170,7 +2191,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2217,7 +2238,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>19</v>
@@ -2226,7 +2247,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H3" s="4"/>
     </row>
@@ -2234,14 +2255,14 @@
       <c r="A4" s="2">
         <v>21</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
+      <c r="D4" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="6" t="s">
@@ -2256,14 +2277,14 @@
       <c r="A5" s="2">
         <v>22</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
+      <c r="D5" s="32" t="s">
+        <v>18</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="6" t="s">
@@ -2279,7 +2300,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>15</v>
@@ -2301,7 +2322,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>15</v>
@@ -2322,11 +2343,11 @@
       <c r="A8" s="2">
         <v>24</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>60</v>
+      <c r="B8" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>18</v>
@@ -2344,8 +2365,8 @@
       <c r="A9" s="2">
         <v>25</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>59</v>
+      <c r="B9" s="29" t="s">
+        <v>95</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>16</v>
@@ -2374,10 +2395,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDD4EB2-544A-4CDC-8AA5-8242F624138E}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2387,7 +2408,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2428,7 +2449,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>15</v>
@@ -2446,21 +2467,19 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>27</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="6" t="s">
-        <v>25</v>
+      <c r="A4" s="2"/>
+      <c r="B4" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>43</v>
@@ -2468,43 +2487,31 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>28</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>29</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>66</v>
+        <v>27</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>43</v>
@@ -2513,14 +2520,20 @@
     </row>
     <row r="7" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>30</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>43</v>
@@ -2529,20 +2542,20 @@
     </row>
     <row r="8" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>31</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>43</v>
@@ -2551,20 +2564,20 @@
     </row>
     <row r="9" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>32</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>65</v>
+        <v>30</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>43</v>
@@ -2573,18 +2586,18 @@
     </row>
     <row r="10" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>33</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
         <v>44</v>
       </c>
@@ -2593,9 +2606,59 @@
       </c>
       <c r="H10" s="4"/>
     </row>
+    <row r="11" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>32</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>33</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="31"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="31"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G10" xr:uid="{F30BAD77-A2E9-4505-BEFD-CD688A7628DE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G12" xr:uid="{F30BAD77-A2E9-4505-BEFD-CD688A7628DE}">
       <formula1>"Pending, Doing, Done"</formula1>
     </dataValidation>
   </dataValidations>

--- a/document/SWP391-Group2-Backlog.xlsx
+++ b/document/SWP391-Group2-Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal work\FPTU\SWP\SWP391.E-BL5_Group2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346E36E7-2AD8-48E3-B63C-6777C4541386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B53D56-D0E5-462F-A95F-D7042D061AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -748,20 +748,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1177,19 +1177,19 @@
   <sheetData>
     <row r="1" spans="1:11" ht="111.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="41.25" x14ac:dyDescent="0.8">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1577,7 +1577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B06846-A131-4248-AE4E-27388151FFB3}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1917,8 +1917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3166407-3A8A-4417-9E6E-B4D09AD3E1C5}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2173,8 +2173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7451F09-8652-436B-AD52-FCC74AB67DA3}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2258,10 +2258,10 @@
       <c r="B4" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="2"/>
@@ -2277,13 +2277,13 @@
       <c r="A5" s="2">
         <v>22</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="31" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="2"/>
@@ -2365,7 +2365,7 @@
       <c r="A9" s="2">
         <v>25</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>95</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2651,10 +2651,10 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="31"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="31"/>
+      <c r="F14" s="30"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/document/SWP391-Group2-Backlog.xlsx
+++ b/document/SWP391-Group2-Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal work\FPTU\SWP\SWP391.E-BL5_Group2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B53D56-D0E5-462F-A95F-D7042D061AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB99798-0856-4C96-B71C-F57AF337E67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -1917,7 +1917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3166407-3A8A-4417-9E6E-B4D09AD3E1C5}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2173,8 +2173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7451F09-8652-436B-AD52-FCC74AB67DA3}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2395,10 +2395,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDD4EB2-544A-4CDC-8AA5-8242F624138E}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2487,21 +2487,33 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="A5" s="2">
+        <v>27</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -2520,20 +2532,20 @@
     </row>
     <row r="7" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>28</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>64</v>
+        <v>29</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>43</v>
@@ -2542,20 +2554,20 @@
     </row>
     <row r="8" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>29</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>43</v>
@@ -2564,20 +2576,20 @@
     </row>
     <row r="9" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>30</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>43</v>
@@ -2586,15 +2598,15 @@
     </row>
     <row r="10" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>31</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="5"/>
@@ -2608,57 +2620,35 @@
     </row>
     <row r="11" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>32</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="E11" s="11"/>
       <c r="F11" s="6" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>33</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="4"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F13" s="30"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="30"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G12" xr:uid="{F30BAD77-A2E9-4505-BEFD-CD688A7628DE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G11" xr:uid="{F30BAD77-A2E9-4505-BEFD-CD688A7628DE}">
       <formula1>"Pending, Doing, Done"</formula1>
     </dataValidation>
   </dataValidations>

--- a/document/SWP391-Group2-Backlog.xlsx
+++ b/document/SWP391-Group2-Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal work\FPTU\SWP\SWP391.E-BL5_Group2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB99798-0856-4C96-B71C-F57AF337E67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9AF734-C830-4933-93FD-61DE08235646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="119">
   <si>
     <t>Final Product Backblog</t>
   </si>
@@ -497,6 +497,85 @@
   </si>
   <si>
     <t>Promotion Code Management</t>
+  </si>
+  <si>
+    <t>Category Management is manager by the seller team.
+- Allow the admin/seller to search category by category's id, category name
+- The list is sortable by category's id, category name
+- From each category, the admin/seller can choose to edit it
+- The page also have the button that allows the admin/seller to create new Category and delete Category</t>
+  </si>
+  <si>
+    <t>Promotion Management is manager by the seller team.
+- Allow the admin/seller to search Promotion Code by promotion's id, promotion code
+- The list is sortable by promotion's id, promotion code
+- From each promotion code, the admin/seller can choose to edit it
+- The page also have the button that allows the admin/seller to create new Promotion code and delete Promotion code</t>
+  </si>
+  <si>
+    <t>Notification Management is manager by the marketing team.
+- Allow the admin/marketing to search notification by notification's id, title, content, time
+- The list is sortable by notification's id, title, content, time
+- From each notification, the admin/marketing can choose to send it
+- The page also have the button that allows the admin/seller to create new Notification and delete Category</t>
+  </si>
+  <si>
+    <t>At FAQ page in nav bar, user can read all of FAQ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each FAQ title, it will have dropdown button in the next title. User can click on it to read detail FAQ </t>
+  </si>
+  <si>
+    <t>At Cart page, after shopping, customers can click "Check Out" button to completion them cart. In Checkout page, customers can double check them products. Also customers can apply Promotion code to decrease them price order.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment </t>
+  </si>
+  <si>
+    <t>When click "Payment" button at Checkout page, Customer's order will be recognized by the system. At the same time Payment page will appear to display payment information, and money customer must be pay.</t>
+  </si>
+  <si>
+    <t>About Us page will display information,address,  contact point of our team.</t>
+  </si>
+  <si>
+    <t>When customer click Subcribe checkbox in Profile page, them will be receive all of notification about new product, new post, new promotion to their email.</t>
+  </si>
+  <si>
+    <t>Email Management is manager by the marketing team.
+- Allow the admin/seller to search email notification by email's id, title, content, status, date
+- The list is sortable by email's id, title, content, status, date
+- From each category, the admin/seller can choose to send it
+- The page also have the button that allows the admin/seller to create new Email Notification and delete Email Notification</t>
+  </si>
+  <si>
+    <t>Order Management is manager by the seller team.
+- Allow the admin/seller to search order by order's id, total price, note, status, date, promotion
+- The list is sortable by order's id, total price, note, status, date, promotion
+- From each category, the admin/seller can choose to edit and view detail it
+- The page also have the button that allows the admin/seller to delete Order</t>
+  </si>
+  <si>
+    <t>At Order History, cusomters can view their order history and it status</t>
+  </si>
+  <si>
+    <t>When click to an Order, Order detail will appear to display that order detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authorization all page and all url in project. Accounts do not have permision, it will can not access some page/url </t>
+  </si>
+  <si>
+    <t>At Notification page, it will list all notification with each customer</t>
+  </si>
+  <si>
+    <t>Each notification, when user click on it title, Notification detail will appear to display notificaition</t>
+  </si>
+  <si>
+    <t>Product management is control by the seller team, Create new product, edit detail product. 
+each product has title, category, original price, discount price, date ,thumbnail and detail image and a briefly descript about the product
+- Allow the admin/ seller to search product by product id,  title, detail product
+- The list is sortable by product id, title and date
+- For each product, the admin/seller can choose to edit it
+- The page also have the button that allows the admin/seller to create new product and delete product</t>
   </si>
 </sst>
 </file>
@@ -667,7 +746,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -712,44 +791,11 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -758,6 +804,27 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1177,19 +1244,19 @@
   <sheetData>
     <row r="1" spans="1:11" ht="111.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="41.25" x14ac:dyDescent="0.8">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1321,7 +1388,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1578,7 +1645,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1918,7 +1985,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1973,7 +2040,7 @@
       <c r="A3" s="2">
         <v>12</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1982,12 +2049,14 @@
       <c r="D3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="H3" s="4"/>
     </row>
@@ -1995,7 +2064,7 @@
       <c r="A4" s="2">
         <v>13</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -2011,7 +2080,7 @@
         <v>25</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -2019,7 +2088,7 @@
       <c r="A5" s="2">
         <v>14</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2035,7 +2104,7 @@
         <v>25</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -2043,7 +2112,7 @@
       <c r="A6" s="2">
         <v>15</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2059,7 +2128,7 @@
         <v>22</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -2067,7 +2136,7 @@
       <c r="A7" s="2">
         <v>16</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -2083,7 +2152,7 @@
         <v>35</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -2091,7 +2160,7 @@
       <c r="A8" s="2">
         <v>17</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2107,7 +2176,7 @@
         <v>24</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="H8" s="4"/>
     </row>
@@ -2115,7 +2184,7 @@
       <c r="A9" s="2">
         <v>18</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2131,7 +2200,7 @@
         <v>24</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -2139,7 +2208,7 @@
       <c r="A10" s="2">
         <v>19</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2155,7 +2224,7 @@
         <v>44</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -2171,10 +2240,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7451F09-8652-436B-AD52-FCC74AB67DA3}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2227,7 +2296,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>20</v>
       </c>
@@ -2251,42 +2320,46 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>21</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2"/>
+      <c r="C4" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="F4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>22</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="31" t="s">
+      <c r="C5" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="F5" s="6" t="s">
         <v>22</v>
       </c>
@@ -2297,9 +2370,9 @@
     </row>
     <row r="6" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>15</v>
-      </c>
-      <c r="B6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2308,7 +2381,9 @@
       <c r="D6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="F6" s="6" t="s">
         <v>35</v>
       </c>
@@ -2319,9 +2394,9 @@
     </row>
     <row r="7" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>16</v>
-      </c>
-      <c r="B7" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -2330,7 +2405,9 @@
       <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="F7" s="6" t="s">
         <v>36</v>
       </c>
@@ -2339,11 +2416,11 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>24</v>
-      </c>
-      <c r="B8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2352,7 +2429,9 @@
       <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="F8" s="6" t="s">
         <v>24</v>
       </c>
@@ -2361,35 +2440,62 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>25</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="F9" s="6" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H9" s="4"/>
     </row>
+    <row r="10" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>27</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G9" xr:uid="{0348012B-1C3A-470C-8FAD-97C722989F3F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G10" xr:uid="{0348012B-1C3A-470C-8FAD-97C722989F3F}">
       <formula1>"Pending, Doing, Done"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2397,13 +2503,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDD4EB2-544A-4CDC-8AA5-8242F624138E}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="8" width="23.42578125" customWidth="1"/>
+    <col min="2" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" customWidth="1"/>
+    <col min="6" max="8" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
@@ -2444,7 +2552,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>26</v>
       </c>
@@ -2457,7 +2565,9 @@
       <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
@@ -2466,8 +2576,10 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>27</v>
+      </c>
       <c r="B4" s="22" t="s">
         <v>98</v>
       </c>
@@ -2477,7 +2589,9 @@
       <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2488,9 +2602,9 @@
     </row>
     <row r="5" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>27</v>
-      </c>
-      <c r="B5" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2499,7 +2613,9 @@
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="F5" s="6" t="s">
         <v>25</v>
       </c>
@@ -2510,9 +2626,9 @@
     </row>
     <row r="6" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>28</v>
-      </c>
-      <c r="B6" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2521,7 +2637,9 @@
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="F6" s="6" t="s">
         <v>25</v>
       </c>
@@ -2530,11 +2648,11 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>29</v>
-      </c>
-      <c r="B7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2543,7 +2661,9 @@
       <c r="D7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="F7" s="6" t="s">
         <v>22</v>
       </c>
@@ -2552,20 +2672,22 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>99</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="F8" s="6" t="s">
         <v>35</v>
       </c>
@@ -2576,18 +2698,20 @@
     </row>
     <row r="9" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>31</v>
-      </c>
-      <c r="B9" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="F9" s="6" t="s">
         <v>44</v>
       </c>
@@ -2598,7 +2722,7 @@
     </row>
     <row r="10" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>59</v>
@@ -2609,7 +2733,9 @@
       <c r="D10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="F10" s="6" t="s">
         <v>44</v>
       </c>
@@ -2618,20 +2744,22 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>96</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>112</v>
+      </c>
       <c r="F11" s="6" t="s">
         <v>24</v>
       </c>
@@ -2641,10 +2769,10 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="30"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="30"/>
+      <c r="F13" s="19"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/document/SWP391-Group2-Backlog.xlsx
+++ b/document/SWP391-Group2-Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal work\FPTU\SWP\SWP391.E-BL5_Group2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9AF734-C830-4933-93FD-61DE08235646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9169781-8B12-44B8-81CB-5F1EDCC2A108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -1227,7 +1227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:C14"/>
     </sheetView>
   </sheetViews>
@@ -1984,8 +1984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3166407-3A8A-4417-9E6E-B4D09AD3E1C5}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2036,7 +2036,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>12</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>90</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>69</v>
@@ -2503,7 +2503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDD4EB2-544A-4CDC-8AA5-8242F624138E}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/document/SWP391-Group2-Backlog.xlsx
+++ b/document/SWP391-Group2-Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal work\FPTU\SWP\SWP391.E-BL5_Group2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9169781-8B12-44B8-81CB-5F1EDCC2A108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227A225C-F074-4704-8310-038C8EC4F7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="122">
   <si>
     <t>Final Product Backblog</t>
   </si>
@@ -576,6 +576,15 @@
 - The list is sortable by product id, title and date
 - For each product, the admin/seller can choose to edit it
 - The page also have the button that allows the admin/seller to create new product and delete product</t>
+  </si>
+  <si>
+    <t>Iter2</t>
+  </si>
+  <si>
+    <t>Iter3</t>
+  </si>
+  <si>
+    <t>Iter4</t>
   </si>
 </sst>
 </file>
@@ -1225,10 +1234,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C14"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8:K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,7 +1335,7 @@
     </row>
     <row r="5" spans="1:11" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A14" si="0">ROW()-3</f>
+        <f t="shared" ref="A5:A39" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1622,6 +1632,756 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" ht="204" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:11" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:11" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="1:11" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+    </row>
+    <row r="26" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+    </row>
+    <row r="27" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+    </row>
+    <row r="28" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+    </row>
+    <row r="29" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+    </row>
+    <row r="30" spans="1:11" ht="153" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+    </row>
+    <row r="31" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+    </row>
+    <row r="32" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+    </row>
+    <row r="33" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+    </row>
+    <row r="34" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+    </row>
+    <row r="35" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36" spans="1:11" ht="153" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+    </row>
+    <row r="37" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+    </row>
+    <row r="38" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+    </row>
+    <row r="39" spans="1:11" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1629,7 +2389,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G14" xr:uid="{908859F8-C6FD-450D-9182-BF2E3FBAA264}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G39" xr:uid="{908859F8-C6FD-450D-9182-BF2E3FBAA264}">
       <formula1>"N/A, Iter1, Iter2, Iter3, Iter4"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1645,7 +2405,8 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1984,8 +2745,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3166407-3A8A-4417-9E6E-B4D09AD3E1C5}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2242,8 +3004,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7451F09-8652-436B-AD52-FCC74AB67DA3}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2364,7 +3127,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -2388,7 +3151,7 @@
         <v>35</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -2412,7 +3175,7 @@
         <v>36</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -2436,7 +3199,7 @@
         <v>24</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="H8" s="4"/>
     </row>
@@ -2460,7 +3223,7 @@
         <v>24</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -2481,10 +3244,10 @@
         <v>103</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -2503,8 +3266,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDD4EB2-544A-4CDC-8AA5-8242F624138E}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2713,7 +3477,7 @@
         <v>116</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>43</v>
@@ -2737,7 +3501,7 @@
         <v>117</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>43</v>

--- a/document/SWP391-Group2-Backlog.xlsx
+++ b/document/SWP391-Group2-Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal work\FPTU\SWP\SWP391.E-BL5_Group2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227A225C-F074-4704-8310-038C8EC4F7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D5561C-0164-461A-AC02-8725BE12BD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="121">
   <si>
     <t>Final Product Backblog</t>
   </si>
@@ -310,9 +310,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>Doing</t>
   </si>
   <si>
     <t>LongNTHE140954</t>
@@ -1236,16 +1233,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8:K39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" customWidth="1"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="11.140625" customWidth="1"/>
@@ -1315,7 +1312,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>17</v>
@@ -1345,7 +1342,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>17</v>
@@ -1369,13 +1366,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
@@ -1399,13 +1396,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -1435,7 +1432,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -1495,7 +1492,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>17</v>
@@ -1525,7 +1522,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
@@ -1555,7 +1552,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>17</v>
@@ -1585,13 +1582,13 @@
         <v>16</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>27</v>
@@ -1615,13 +1612,13 @@
         <v>16</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>27</v>
@@ -1639,22 +1636,22 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>26</v>
@@ -1669,13 +1666,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>17</v>
@@ -1684,7 +1681,7 @@
         <v>25</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>26</v>
@@ -1699,13 +1696,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>17</v>
@@ -1714,7 +1711,7 @@
         <v>25</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>26</v>
@@ -1729,13 +1726,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>17</v>
@@ -1744,7 +1741,7 @@
         <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>26</v>
@@ -1759,13 +1756,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>18</v>
@@ -1774,7 +1771,7 @@
         <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>26</v>
@@ -1789,13 +1786,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>17</v>
@@ -1804,7 +1801,7 @@
         <v>24</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>26</v>
@@ -1819,13 +1816,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>18</v>
@@ -1834,7 +1831,7 @@
         <v>24</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>26</v>
@@ -1849,22 +1846,22 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>26</v>
@@ -1894,7 +1891,7 @@
         <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>26</v>
@@ -1909,13 +1906,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>17</v>
@@ -1924,7 +1921,7 @@
         <v>25</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>26</v>
@@ -1939,13 +1936,13 @@
         <v>22</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>18</v>
@@ -1954,7 +1951,7 @@
         <v>22</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>26</v>
@@ -1969,13 +1966,13 @@
         <v>23</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>17</v>
@@ -1984,7 +1981,7 @@
         <v>35</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>26</v>
@@ -1999,13 +1996,13 @@
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>17</v>
@@ -2014,7 +2011,7 @@
         <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>26</v>
@@ -2029,13 +2026,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>18</v>
@@ -2044,7 +2041,7 @@
         <v>24</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>26</v>
@@ -2059,13 +2056,13 @@
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>17</v>
@@ -2074,7 +2071,7 @@
         <v>24</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>26</v>
@@ -2089,22 +2086,22 @@
         <v>27</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>26</v>
@@ -2119,13 +2116,13 @@
         <v>28</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>17</v>
@@ -2134,7 +2131,7 @@
         <v>20</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>26</v>
@@ -2149,13 +2146,13 @@
         <v>29</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>17</v>
@@ -2164,7 +2161,7 @@
         <v>20</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>26</v>
@@ -2179,13 +2176,13 @@
         <v>30</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>17</v>
@@ -2194,7 +2191,7 @@
         <v>25</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>26</v>
@@ -2209,13 +2206,13 @@
         <v>31</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>17</v>
@@ -2224,7 +2221,7 @@
         <v>25</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>26</v>
@@ -2239,22 +2236,22 @@
         <v>32</v>
       </c>
       <c r="B35" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>26</v>
@@ -2269,13 +2266,13 @@
         <v>33</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>18</v>
@@ -2284,7 +2281,7 @@
         <v>35</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>26</v>
@@ -2299,22 +2296,22 @@
         <v>34</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>26</v>
@@ -2329,22 +2326,22 @@
         <v>35</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>26</v>
@@ -2359,13 +2356,13 @@
         <v>36</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>18</v>
@@ -2374,7 +2371,7 @@
         <v>24</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>26</v>
@@ -2472,13 +2469,13 @@
         <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" s="4"/>
     </row>
@@ -2497,13 +2494,13 @@
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -2512,7 +2509,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>15</v>
@@ -2521,13 +2518,13 @@
         <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -2537,22 +2534,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -2571,13 +2568,13 @@
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -2602,7 +2599,7 @@
         <v>35</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H8" s="4"/>
     </row>
@@ -2621,13 +2618,13 @@
         <v>17</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -2646,13 +2643,13 @@
         <v>17</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -2671,13 +2668,13 @@
         <v>17</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H11" s="4"/>
     </row>
@@ -2696,13 +2693,13 @@
         <v>17</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H12" s="4"/>
     </row>
@@ -2721,13 +2718,13 @@
         <v>17</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="H13" s="4"/>
     </row>
@@ -2762,7 +2759,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2803,22 +2800,22 @@
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" s="4"/>
     </row>
@@ -2827,7 +2824,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
@@ -2836,13 +2833,13 @@
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -2851,7 +2848,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -2860,13 +2857,13 @@
         <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -2875,22 +2872,22 @@
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -2899,22 +2896,22 @@
         <v>16</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -2923,7 +2920,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>15</v>
@@ -2932,13 +2929,13 @@
         <v>17</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H8" s="4"/>
     </row>
@@ -2947,7 +2944,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
@@ -2956,13 +2953,13 @@
         <v>18</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -2971,22 +2968,22 @@
         <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -3004,7 +3001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7451F09-8652-436B-AD52-FCC74AB67DA3}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
@@ -3023,7 +3020,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3079,7 +3076,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" s="4"/>
     </row>
@@ -3088,22 +3085,22 @@
         <v>21</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -3112,22 +3109,22 @@
         <v>22</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -3136,7 +3133,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>15</v>
@@ -3145,13 +3142,13 @@
         <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -3160,7 +3157,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>15</v>
@@ -3169,13 +3166,13 @@
         <v>17</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>36</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -3184,7 +3181,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>15</v>
@@ -3193,13 +3190,13 @@
         <v>18</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H8" s="4"/>
     </row>
@@ -3208,22 +3205,22 @@
         <v>26</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -3232,22 +3229,22 @@
         <v>27</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -3280,7 +3277,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3321,7 +3318,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>15</v>
@@ -3330,13 +3327,13 @@
         <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="H3" s="4"/>
     </row>
@@ -3345,7 +3342,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
@@ -3354,13 +3351,13 @@
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -3369,7 +3366,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -3378,13 +3375,13 @@
         <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -3393,7 +3390,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -3402,13 +3399,13 @@
         <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -3417,22 +3414,22 @@
         <v>30</v>
       </c>
       <c r="B7" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -3441,22 +3438,22 @@
         <v>31</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="H8" s="4"/>
     </row>
@@ -3465,7 +3462,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>15</v>
@@ -3474,13 +3471,13 @@
         <v>17</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -3489,7 +3486,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>15</v>
@@ -3498,13 +3495,13 @@
         <v>17</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -3513,22 +3510,22 @@
         <v>34</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="H11" s="4"/>
     </row>

--- a/document/SWP391-Group2-Backlog.xlsx
+++ b/document/SWP391-Group2-Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal work\FPTU\SWP\SWP391.E-BL5_Group2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D5561C-0164-461A-AC02-8725BE12BD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B478A6-598E-4FAE-BCEB-63CE3AA35FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -1233,7 +1233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
@@ -2050,7 +2050,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
     </row>
-    <row r="29" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2110,7 +2110,7 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
     </row>
-    <row r="31" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3263,9 +3263,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDD4EB2-544A-4CDC-8AA5-8242F624138E}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="3" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>62</v>
@@ -3339,7 +3339,7 @@
     </row>
     <row r="4" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>97</v>
@@ -3363,7 +3363,7 @@
     </row>
     <row r="5" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>56</v>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="6" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>63</v>
@@ -3411,7 +3411,7 @@
     </row>
     <row r="7" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>59</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="8" spans="1:8" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>98</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="9" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>57</v>
@@ -3483,7 +3483,7 @@
     </row>
     <row r="10" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>58</v>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="11" spans="1:8" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>95</v>

--- a/document/SWP391-Group2-Backlog.xlsx
+++ b/document/SWP391-Group2-Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal work\FPTU\SWP\SWP391.E-BL5_Group2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B478A6-598E-4FAE-BCEB-63CE3AA35FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEFAD9B-826F-4F95-BEF5-7E02FBE97056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1234,7 +1234,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -3002,8 +3002,8 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3264,8 +3264,8 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
